--- a/data/実験データ.xlsx
+++ b/data/実験データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notnaetarou\Documents\GitHub\Experiment-TreeDiagram\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A53A0C-23CE-4B90-8FBE-32DB716BE8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02D9BFE-39BF-4A9E-8FC1-D29F5E37E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{49E04A6F-06BC-4AD8-8135-C4F412682B10}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{49E04A6F-06BC-4AD8-8135-C4F412682B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -470,6 +470,9 @@
       <c r="D2">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="E2">
+        <v>8.6999999999999994E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -484,6 +487,9 @@
       <c r="D3">
         <v>2.0000000000000001E-4</v>
       </c>
+      <c r="E3">
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -498,6 +504,9 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -512,6 +521,9 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -526,6 +538,9 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -540,6 +555,9 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -548,6 +566,15 @@
       <c r="B8">
         <v>3.2199999999999999E-2</v>
       </c>
+      <c r="C8">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -576,6 +603,9 @@
       <c r="D11">
         <v>0.36</v>
       </c>
+      <c r="E11">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -590,6 +620,9 @@
       <c r="D12">
         <v>0.45</v>
       </c>
+      <c r="E12">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -604,6 +637,9 @@
       <c r="D13">
         <v>0.45</v>
       </c>
+      <c r="E13">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -618,6 +654,9 @@
       <c r="D14">
         <v>0.36</v>
       </c>
+      <c r="E14">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -632,6 +671,9 @@
       <c r="D15">
         <v>0.45</v>
       </c>
+      <c r="E15">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -646,13 +688,25 @@
       <c r="D16">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>100000</v>
       </c>
       <c r="B17">
         <v>0.36</v>
+      </c>
+      <c r="C17">
+        <v>0.45</v>
+      </c>
+      <c r="D17">
+        <v>0.45</v>
+      </c>
+      <c r="E17">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
